--- a/As-Is/Input/Factory_info.xlsx
+++ b/As-Is/Input/Factory_info.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohyon\PycharmProjects\UI_Simulation\As-Is\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohyon\PycharmProjects\EPL\As-Is\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05124C96-B9F0-4B98-8C79-0255AD337A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8198ABB2-AED5-4F97-8CA9-A4F815178332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="4785" windowWidth="28800" windowHeight="15435" xr2:uid="{3E5EC118-7C21-4092-A2DF-6AFED0968356}"/>
+    <workbookView xWindow="9510" yWindow="7290" windowWidth="17595" windowHeight="10920" xr2:uid="{3E5EC118-7C21-4092-A2DF-6AFED0968356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -708,13 +711,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93D940C-7A95-40D9-8BD1-529007791AEE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -859,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -883,7 +890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -907,7 +914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -931,7 +938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -955,7 +962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -979,7 +986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1003,7 +1010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1027,7 +1034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1051,7 +1058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1099,7 +1106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1147,7 +1154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1195,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1219,7 +1226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1243,7 +1250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1291,7 +1298,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1315,7 +1322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1339,7 +1346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1363,7 +1370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1387,7 +1394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1411,7 +1418,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1435,7 +1442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1483,7 +1490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1507,7 +1514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1531,7 +1538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1555,7 +1562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1579,7 +1586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1603,7 +1610,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1863,7 +1870,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -1883,7 +1890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -1903,7 +1910,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -1923,7 +1930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -1943,7 +1950,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -1963,7 +1970,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -1983,7 +1990,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -2003,7 +2010,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -2023,7 +2030,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2043,7 +2050,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -2063,7 +2070,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -2083,7 +2090,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -2103,7 +2110,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -2143,7 +2150,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -2163,7 +2170,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -2183,7 +2190,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -2224,6 +2231,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G66" xr:uid="{F93D940C-7A95-40D9-8BD1-529007791AEE}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Factory"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
